--- a/Textbooks, projects/Applied Math/labs/lab_2/lab_2_var_3.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/lab_2_var_3.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823CAAC8-8EE4-41F1-BC02-1FB6A62FF3D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F9EAA8-91C4-4F26-B6EB-26F1FC9F1844}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -46,13 +42,13 @@
     <t>f(c)</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>F(x)</t>
   </si>
   <si>
     <t>F'(x)</t>
-  </si>
-  <si>
-    <t>погрешность</t>
   </si>
   <si>
     <t>f(x)</t>
@@ -65,13 +61,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,14 +97,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -168,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$W$1</c:f>
+              <c:f>Лист1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -180,7 +185,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -191,132 +196,108 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$V$2:$V$20</c:f>
+              <c:f>Лист1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$W$2:$W$20</c:f>
+              <c:f>Лист1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.1993333774407984</c:v>
+                  <c:v>-0.99467912331169073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0541055247918414</c:v>
+                  <c:v>9.468570755269301E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0363261353671769</c:v>
+                  <c:v>-0.24652280708231578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1994961615228967</c:v>
+                  <c:v>-8.2002446028001774E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3329384082411933</c:v>
+                  <c:v>2.8380447353018923E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80332367168063734</c:v>
+                  <c:v>0.54280057655519354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.63121145296341374</c:v>
+                  <c:v>-0.17083304214464734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95178309522086835</c:v>
+                  <c:v>0.24075852181279433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39003733524184869</c:v>
+                  <c:v>0.80737730588643908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50221032799009302</c:v>
+                  <c:v>1.0347096223313637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7066753460655969</c:v>
+                  <c:v>1.0821376901866531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20191759609616483</c:v>
+                  <c:v>0.85702478848167551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.11791755091982392</c:v>
+                  <c:v>0.36191507578896731</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.22899568770423703</c:v>
+                  <c:v>0.93293856937070352</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.33059295114770526</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.40638456473452578</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.24411725003259102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8508370521706572E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.49596777222168847</c:v>
+                  <c:v>1.1124554122582158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,7 +305,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0A0-4181-9A2F-0C8EE69A1B42}"/>
+              <c16:uniqueId val="{00000000-FBC8-4D8A-8C02-DCFE7A7032AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -336,11 +317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2077501839"/>
-        <c:axId val="2074641279"/>
+        <c:axId val="378103376"/>
+        <c:axId val="378105336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2077501839"/>
+        <c:axId val="378103376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,12 +378,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074641279"/>
+        <c:crossAx val="378105336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074641279"/>
+        <c:axId val="378105336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +440,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077501839"/>
+        <c:crossAx val="378103376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -473,13 +454,377 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.99467912331169073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.468570755269301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.24652280708231578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.2002446028001774E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8380447353018923E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54280057655519354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17083304214464734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24075852181279433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80737730588643908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0347096223313637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0821376901866531</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85702478848167551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36191507578896731</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93293856937070352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1124554122582158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA33-49E7-805F-A01805B933EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382311912"/>
+        <c:axId val="382308384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382311912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382308384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382308384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382311912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -516,9 +861,52 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1068,27 +1456,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88638063-5528-4C63-9223-10A4A19F2AEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,10 +2013,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1120,44 +2067,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1185,14 +2132,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1220,9 +2184,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1231,1145 +2212,2543 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
         <v>2</v>
       </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>LOG(A2+4,2)-0.5*(SIN(((A2+6)/3)^3)+5)</f>
+        <v>-0.99467912331169073</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <f>(P2+Q2)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:U3" si="0">LOG(P2+4,2)-0.5*(SIN(((P2+6)/3)^3)+5)</f>
+        <v>-0.24652280708231578</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2.8380447353018923E-2</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="V2">
+        <f>ABS(P2-R2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="1">LOG(A3+4,2)-0.5*(SIN(((A3+6)/3)^3)+5)</f>
+        <v>9.468570755269301E-3</v>
+      </c>
+      <c r="P3">
+        <f>IF(S2*U2&gt;0,R2,P2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q3">
+        <f>IF(T2*U2&gt;0,R2,Q2)</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f>(P3+Q3)/2</f>
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>2.8380447353018923E-2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0.52318955942737988</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V18" si="2">ABS(P3-R3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="X3">
+        <f>X2-Y3/Z3</f>
+        <v>2.0086203369359028</v>
+      </c>
+      <c r="Y3">
+        <f>LOG(X2+4,2)-0.5*(SIN(((X2+6)/3)^3)+5)</f>
+        <v>2.8380447353018923E-2</v>
+      </c>
+      <c r="Z3">
+        <f>(1/((X2+4)*LN(2)))-0.5*COS(((X2+6)/3)^3)*(((X2+6)/3)^2)</f>
+        <v>-3.2922665974710776</v>
+      </c>
+      <c r="AA3">
+        <f>ABS(X3-X2)</f>
+        <v>8.6203369359028059E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>-0.24652280708231578</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P18" si="3">IF(S3*U3&gt;0,R3,P3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="4">IF(T3*U3&gt;0,R3,Q3)</f>
+        <v>1.75</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R18" si="5">(P4+Q4)/2</f>
+        <v>1.625</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S18" si="6">LOG(P4+4,2)-0.5*(SIN(((P4+6)/3)^3)+5)</f>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T18" si="7">LOG(Q4+4,2)-0.5*(SIN(((Q4+6)/3)^3)+5)</f>
+        <v>0.52318955942737988</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U18" si="8">LOG(R4+4,2)-0.5*(SIN(((R4+6)/3)^3)+5)</f>
+        <v>0.31829290442543501</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X18" si="9">X3-Y4/Z4</f>
+        <v>2.0086482740896847</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y18" si="10">LOG(X3+4,2)-0.5*(SIN(((X3+6)/3)^3)+5)</f>
+        <v>9.1321968869628734E-5</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z18" si="11">(1/((X3+4)*LN(2)))-0.5*COS(((X3+6)/3)^3)*(((X3+6)/3)^2)</f>
+        <v>-3.2688358156324897</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA18" si="12">ABS(X4-X3)</f>
+        <v>2.7937153781909529E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>1.625</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>1.5625</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>0.31829290442543501</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>0.12870360590416752</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="10"/>
+        <v>1.3662004860748311E-9</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="11"/>
+        <v>-3.2687379864067565</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="12"/>
+        <v>4.1795944483169478E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.8380447353018923E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>1.5625</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>1.53125</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>0.12870360590416752</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.54280057655519354</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>1.53125</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>1.515625</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>-2.902761526958697E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>1.515625</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>1.53125</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>-2.902761526958697E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.24075852181279433</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>1.53125</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>1.52734375</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>2.4066943362107907E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>1.0807978961921538E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.80737730588643908</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>1.52734375</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>1.525390625</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>1.0807978961921538E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>4.1724959344091594E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1.0347096223313637</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>1.525390625</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>1.5244140625</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>4.1724959344091594E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>8.536633310578523E-4</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1.0821376901866531</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>1.5234375</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>1.5244140625</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>1.52392578125</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>-2.4657411363508963E-3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>8.536633310578523E-4</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>-8.0597470303755969E-4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.85702478848167551</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>1.52392578125</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>1.5244140625</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>-8.0597470303755969E-4</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>8.536633310578523E-4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.36191507578896731</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>1.52392578125</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>1.5240478515625</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>-8.0597470303755969E-4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>-3.9105258828975309E-4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.93293856937070352</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>1.5240478515625</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>1.52410888671875</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>-3.9105258828975309E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>-1.8359461136352451E-4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1.1124554122582158</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>1.52410888671875</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>1.524139404296875</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>-1.8359461136352451E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>-7.9866405449102729E-5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>1.524139404296875</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>1.5241546630859375</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>-7.9866405449102729E-5</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>-2.8002499690149563E-5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>1.5241546630859375</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>1.524169921875</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>1.5241622924804688</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>-2.8002499690149563E-5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>2.3861274016212519E-5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>-2.0705963010847483E-6</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>7.62939453125E-6</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="9"/>
+        <v>2.0086482745076442</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="11"/>
+        <v>-3.2687379849421041</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="Z24">
+        <f>(1/((X2+4)*LN(2)))-((X2+6)^2)*COS(((X2+6)^3)/27)/18</f>
+        <v>-3.2922665974710781</v>
+      </c>
+    </row>
+    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f>P24-Q25/$R$24</f>
+        <v>1.0493045614164631</v>
+      </c>
+      <c r="Q25">
+        <f>LOG(P24+4,2)-0.5*(SIN(((P24+6)/3)^3)+5)</f>
+        <v>-0.24652280708231578</v>
+      </c>
+      <c r="S25">
+        <f>ABS(P25-P24)</f>
+        <v>4.9304561416463111E-2</v>
+      </c>
+      <c r="T25" t="str">
+        <f>IF(S25&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" ref="P26:P37" si="13">P25-Q26/$R$24</f>
+        <v>1.1217342250840854</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q37" si="14">LOG(P25+4,2)-0.5*(SIN(((P25+6)/3)^3)+5)</f>
+        <v>-0.36214831833811134</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:S37" si="15">ABS(P26-P25)</f>
+        <v>7.2429663667622268E-2</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" ref="T26:T37" si="16">IF(S26&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>1.2229536562872634</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="14"/>
+        <v>-0.50609715601589045</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="15"/>
+        <v>0.101219431203178</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <f t="shared" si="13"/>
+        <v>1.3443553078839729</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="14"/>
+        <v>-0.60700825798354829</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="15"/>
+        <v>0.12140165159670957</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <f t="shared" si="13"/>
+        <v>1.4467737946422228</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="14"/>
+        <v>-0.51209243379124869</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="15"/>
+        <v>0.10241848675824983</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <f t="shared" si="13"/>
+        <v>1.4978541845956672</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="14"/>
+        <v>-0.25540194976722175</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="15"/>
+        <v>5.1080389953444438E-2</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f t="shared" si="13"/>
+        <v>1.5157026233839956</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="14"/>
+        <v>-8.9242193941642345E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="15"/>
+        <v>1.7848438788328425E-2</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="32" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f t="shared" si="13"/>
+        <v>1.5214553738637826</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="14"/>
+        <v>-2.8763752398934805E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="15"/>
+        <v>5.7527504797869611E-3</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f t="shared" si="13"/>
+        <v>1.5232962547298221</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="14"/>
+        <v>-9.2044043301977574E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="15"/>
+        <v>1.8408808660395071E-3</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="16"/>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <f t="shared" si="13"/>
+        <v>1.5238854315626442</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="14"/>
+        <v>-2.9458841641103461E-3</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="15"/>
+        <v>5.8917683282211364E-4</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <f t="shared" si="13"/>
+        <v>1.5240740569145346</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="14"/>
+        <v>-9.4312675945218416E-4</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="15"/>
+        <v>1.8862535189034801E-4</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <f t="shared" si="13"/>
+        <v>1.5241344530275807</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="14"/>
+        <v>-3.0198056523067507E-4</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="15"/>
+        <v>6.0396113046090605E-5</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <f t="shared" si="13"/>
+        <v>1.5241537921405843</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="14"/>
+        <v>-9.6695565018567464E-5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="15"/>
+        <v>1.9339113003669084E-5</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="16"/>
+        <v>yes</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>LOG(A2+4,2)-0.5*(SIN(((A2+6)/3)^3)+5)</f>
+        <v>-0.99467912331169073</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <f>(P2+Q2)/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:U17" si="0">LOG(P2+4,2)-0.5*(SIN(((P2+6)/3)^3)+5)</f>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0.80737730588643908</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0.24075852181279433</v>
+      </c>
+      <c r="V2">
+        <f>ABS(P2-R2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="1">LOG(A3+4,2)-0.5*(SIN(((A3+6)/3)^3)+5)</f>
+        <v>9.468570755269301E-3</v>
+      </c>
+      <c r="P3">
+        <f>IF(S2*U2&gt;0,R2,P2)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <f>IF(T2*U2&gt;0,R2,Q2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R3">
+        <f>(P3+Q3)/2</f>
+        <v>3.25</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0.24075852181279433</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0.78886507074098766</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V18" si="2">ABS(P3-R3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="X3">
+        <f>X2-Y3/Z3</f>
+        <v>3.1123366566923698</v>
+      </c>
+      <c r="Y3">
+        <f>LOG(X2+4,2)-0.5*(SIN(((X2+6)/3)^3)+5)</f>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="Z3">
+        <f>(1/((X2+4)*LN(2)))-0.5*COS(((X2+6)/3)^3)*(((X2+6)/3)^2)</f>
+        <v>1.5207239308578291</v>
+      </c>
+      <c r="AA3">
+        <f>ABS(X3-X2)</f>
+        <v>0.11233665669236981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>(A2+B2)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:F3" si="0">(SIN((A2-8)^2))/3-(A2-2)/5</f>
-        <v>0.7066753460655969</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0.20191759609616483</v>
-      </c>
-      <c r="V2">
-        <v>-5</v>
-      </c>
-      <c r="W2">
-        <f>(SIN((V2-8)^2))/3-(V2-2)/5</f>
-        <v>1.1993333774407984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>IF(D2*F2&gt;0,C2,A2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="B3">
-        <f>IF(E2*F2&gt;0,C2,B2)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>(A3+B3)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.20191759609616483</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.49922967752144298</v>
-      </c>
-      <c r="V3">
-        <v>-4.5</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W20" si="1">(SIN((V3-8)^2))/3-(V3-2)/5</f>
-        <v>1.0541055247918414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A20" si="2">IF(D3*F3&gt;0,C3,A3)</f>
-        <v>0.75</v>
-      </c>
       <c r="B4">
-        <f t="shared" ref="B4:B20" si="3">IF(E3*F3&gt;0,C3,B3)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C20" si="4">(A4+B4)/2</f>
-        <v>0.875</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D20" si="5">(SIN((A4-8)^2))/3-(A4-2)/5</f>
-        <v>0.49922967752144298</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E20" si="6">(SIN((B4-8)^2))/3-(B4-2)/5</f>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F20" si="7">(SIN((C4-8)^2))/3-(C4-2)/5</f>
-        <v>0.38485020886703003</v>
+        <f t="shared" si="1"/>
+        <v>-0.24652280708231578</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P18" si="3">IF(S3*U3&gt;0,R3,P3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q18" si="4">IF(T3*U3&gt;0,R3,Q3)</f>
+        <v>3.25</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R18" si="5">(P4+Q4)/2</f>
+        <v>3.125</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.78886507074098766</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.26627044601468564</v>
       </c>
       <c r="V4">
-        <v>-4</v>
-      </c>
-      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X18" si="6">X3-Y4/Z4</f>
+        <v>3.0681743094632066</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y18" si="7">LOG(X3+4,2)-0.5*(SIN(((X3+6)/3)^3)+5)</f>
+        <v>0.20631551114450852</v>
+      </c>
+      <c r="Z4">
+        <f>(1/((X3+4)*LN(2)))-0.5*COS(((X3+6)/3)^3)*(((X3+6)/3)^2)</f>
+        <v>4.6717514826355471</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA18" si="8">ABS(X4-X3)</f>
+        <v>4.4162347229163235E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="1"/>
-        <v>1.0363261353671769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>-8.2002446028001774E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>3.125</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>3.0625</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.26627044601468564</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="2"/>
-        <v>0.875</v>
-      </c>
-      <c r="B5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>3.0639066058842594</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>1.6319776555726584E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z4:Z18" si="9">(1/((X4+4)*LN(2)))-0.5*COS(((X4+6)/3)^3)*(((X4+6)/3)^2)</f>
+        <v>3.8240182931712656</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="8"/>
+        <v>4.267703578947124E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.8380447353018923E-2</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>3.0625</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="4"/>
-        <v>0.9375</v>
-      </c>
-      <c r="D5">
+        <v>3.125</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="5"/>
-        <v>0.38485020886703003</v>
-      </c>
-      <c r="E5">
+        <v>3.09375</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.26627044601468564</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.12186309606747692</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="6"/>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="F5">
+        <v>3.0638412181106944</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="7"/>
-        <v>8.6826834600188779E-2</v>
-      </c>
-      <c r="V5">
-        <v>-3.5</v>
-      </c>
-      <c r="W5">
+        <v>2.4255584465082691E-4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="9"/>
+        <v>3.7094984494350576</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="8"/>
+        <v>6.5387773565017682E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="1"/>
-        <v>1.1994961615228967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>0.54280057655519354</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>3.09375</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>3.078125</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.12186309606747692</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>5.5622295306324343E-2</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="2"/>
-        <v>0.9375</v>
-      </c>
-      <c r="B6">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932933</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>5.8646249190275057E-8</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="9"/>
+        <v>3.7077044552236273</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>1.5817401166628997E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C6">
+        <v>3.0625</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="4"/>
-        <v>0.96875</v>
-      </c>
-      <c r="D6">
+        <v>3.078125</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="5"/>
-        <v>8.6826834600188779E-2</v>
-      </c>
-      <c r="E6">
+        <v>3.0703125</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>5.5622295306324343E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2.4555756338227486E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="6"/>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="F6">
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="7"/>
-        <v>-3.9052472515785669E-2</v>
-      </c>
-      <c r="V6">
-        <v>-3</v>
-      </c>
-      <c r="W6">
+        <v>4.8849813083506888E-15</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118919</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="8"/>
+        <v>1.3322676295501878E-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
-        <v>1.3329384082411933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>0.24075852181279433</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>3.0703125</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>3.06640625</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>2.4555756338227486E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>9.5999493330269914E-3</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="2"/>
-        <v>0.9375</v>
-      </c>
-      <c r="B7">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.80737730588643908</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="3"/>
-        <v>0.96875</v>
-      </c>
-      <c r="C7">
+        <v>3.0625</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="4"/>
-        <v>0.953125</v>
-      </c>
-      <c r="D7">
+        <v>3.06640625</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="5"/>
-        <v>8.6826834600188779E-2</v>
-      </c>
-      <c r="E7">
+        <v>3.064453125</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>9.5999493330269914E-3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>2.2739562153448745E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="6"/>
-        <v>-3.9052472515785669E-2</v>
-      </c>
-      <c r="F7">
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="7"/>
-        <v>1.9230051089987016E-2</v>
-      </c>
-      <c r="V7">
-        <v>-2.5</v>
-      </c>
-      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="1"/>
-        <v>0.80332367168063734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>1.0347096223313637</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>3.0625</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>3.064453125</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>3.0634765625</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>-4.9479867138044753E-3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>2.2739562153448745E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>-1.3501496275156732E-3</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="2"/>
-        <v>0.953125</v>
-      </c>
-      <c r="B8">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1.0821376901866531</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="3"/>
-        <v>0.96875</v>
-      </c>
-      <c r="C8">
+        <v>3.0634765625</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="4"/>
-        <v>0.9609375</v>
-      </c>
-      <c r="D8">
+        <v>3.064453125</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="5"/>
-        <v>1.9230051089987016E-2</v>
-      </c>
-      <c r="E8">
+        <v>3.06396484375</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>-1.3501496275156732E-3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>2.2739562153448745E-3</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>4.5863562011216885E-4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="6"/>
-        <v>-3.9052472515785669E-2</v>
-      </c>
-      <c r="F8">
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="7"/>
-        <v>-1.1250093685642698E-2</v>
-      </c>
-      <c r="V8">
-        <v>-2</v>
-      </c>
-      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
-        <v>0.63121145296341374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>0.85702478848167551</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>3.0634765625</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>3.06396484375</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>3.063720703125</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>-1.3501496275156732E-3</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>4.5863562011216885E-4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>-4.4657591804231345E-4</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="2"/>
-        <v>0.953125</v>
-      </c>
-      <c r="B9">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.36191507578896731</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="3"/>
-        <v>0.9609375</v>
-      </c>
-      <c r="C9">
+        <v>3.063720703125</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="4"/>
-        <v>0.95703125</v>
-      </c>
-      <c r="D9">
+        <v>3.06396484375</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="5"/>
-        <v>1.9230051089987016E-2</v>
-      </c>
-      <c r="E9">
+        <v>3.0638427734375</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>-4.4657591804231345E-4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>4.5863562011216885E-4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="6"/>
-        <v>-1.1250093685642698E-2</v>
-      </c>
-      <c r="F9">
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="7"/>
-        <v>3.6758515939084579E-3</v>
-      </c>
-      <c r="V9">
-        <v>-1.5</v>
-      </c>
-      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.95178309522086835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>0.93293856937070352</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>3.063720703125</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>3.06378173828125</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>-4.4657591804231345E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>-2.2042642426178816E-4</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="2"/>
-        <v>0.95703125</v>
-      </c>
-      <c r="B10">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1.1124554122582158</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="3"/>
-        <v>0.9609375</v>
-      </c>
-      <c r="C10">
+        <v>3.06378173828125</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="4"/>
-        <v>0.958984375</v>
-      </c>
-      <c r="D10">
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="5"/>
-        <v>3.6758515939084579E-3</v>
-      </c>
-      <c r="E10">
+        <v>3.063812255859375</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>-2.2042642426178816E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>-1.0731331020741308E-4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="6"/>
-        <v>-1.1250093685642698E-2</v>
-      </c>
-      <c r="F10">
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="7"/>
-        <v>-3.8683092985332679E-3</v>
-      </c>
-      <c r="V10">
-        <v>-1</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>0.39003733524184869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>3.063812255859375</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>3.0638275146484375</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>-1.0731331020741308E-4</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>-5.0747164793918387E-5</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="2"/>
-        <v>0.95703125</v>
-      </c>
-      <c r="B11">
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P18">
         <f t="shared" si="3"/>
-        <v>0.958984375</v>
-      </c>
-      <c r="C11">
+        <v>3.0638275146484375</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="4"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="D11">
+        <v>3.0638427734375</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="5"/>
-        <v>3.6758515939084579E-3</v>
-      </c>
-      <c r="E11">
+        <v>3.0638351440429688</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:U18" si="10">LOG(P18+4,2)-0.5*(SIN(((P18+6)/3)^3)+5)</f>
+        <v>-5.0747164793918387E-5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="10"/>
+        <v>5.8253715726763744E-6</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>-2.2461695419195848E-5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>7.62939453125E-6</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="6"/>
-        <v>-3.8683092985332679E-3</v>
-      </c>
-      <c r="F11">
+        <v>3.0638412022932919</v>
+      </c>
+      <c r="Y18">
         <f t="shared" si="7"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="V11">
-        <v>-0.5</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>0.50221032799009302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="2"/>
-        <v>0.95703125</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="3"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
-        <v>0.95751953125</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="5"/>
-        <v>3.6758515939084579E-3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="7"/>
-        <v>1.7748752063782847E-3</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>0.7066753460655969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="2"/>
-        <v>0.95751953125</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="3"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
-        <v>0.957763671875</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="5"/>
-        <v>1.7748752063782847E-3</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="7"/>
-        <v>8.2809520520835123E-4</v>
-      </c>
-      <c r="V13">
-        <v>0.5</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>0.20191759609616483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="2"/>
-        <v>0.957763671875</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="3"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="4"/>
-        <v>0.9578857421875</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="5"/>
-        <v>8.2809520520835123E-4</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="6"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="7"/>
-        <v>3.5563679164571371E-4</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
-        <v>-0.11791755091982392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="2"/>
-        <v>0.9578857421875</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="3"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
-        <v>0.95794677734375</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
-        <v>3.5563679164571371E-4</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="6"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="7"/>
-        <v>1.1964104738165782E-4</v>
-      </c>
-      <c r="V15">
-        <v>1.5</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>-0.22899568770423703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="2"/>
-        <v>0.95794677734375</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="3"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
-        <v>0.957977294921875</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
-        <v>1.1964104738165782E-4</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="6"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="7"/>
-        <v>1.7016114990109354E-6</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>-0.33059295114770526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="2"/>
-        <v>0.957977294921875</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="3"/>
-        <v>0.9580078125</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
-        <v>0.9579925537109375</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
-        <v>1.7016114990109354E-6</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="6"/>
-        <v>-1.1619884000152458E-4</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="7"/>
-        <v>-5.725348855872836E-5</v>
-      </c>
-      <c r="V17">
-        <v>2.5</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
-        <v>-0.40638456473452578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="2"/>
-        <v>0.957977294921875</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="3"/>
-        <v>0.9579925537109375</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
-        <v>0.95798492431640625</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="5"/>
-        <v>1.7016114990109354E-6</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="6"/>
-        <v>-5.725348855872836E-5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="7"/>
-        <v>-2.7777156949293502E-5</v>
-      </c>
-      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="9"/>
+        <v>3.7077040211118599</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P24">
         <v>3</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>-0.24411725003259102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="2"/>
-        <v>0.957977294921875</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="3"/>
-        <v>0.95798492431640625</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
-        <v>0.95798110961914063</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="5"/>
-        <v>1.7016114990109354E-6</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="6"/>
-        <v>-2.7777156949293502E-5</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="7"/>
-        <v>-1.3038077310290053E-5</v>
-      </c>
-      <c r="V19">
-        <v>3.5</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="1"/>
-        <v>2.8508370521706572E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="2"/>
-        <v>0.957977294921875</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="3"/>
-        <v>0.95798110961914063</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="4"/>
-        <v>0.95797920227050781</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
-        <v>1.7016114990109354E-6</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="6"/>
-        <v>-1.3038077310290053E-5</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="7"/>
-        <v>-5.6683090494669131E-6</v>
-      </c>
-      <c r="V20">
-        <v>4</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="1"/>
-        <v>-0.49596777222168847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="I24">
+      <c r="R24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>A24-B25/C25</f>
-        <v>0.92642868049826554</v>
-      </c>
-      <c r="B25">
-        <f>(SIN((A24-8)^2))/3-(A24-2)/5</f>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="C25">
-        <f>(2/3)*COS((A24-8)^2)*(A24-8)-1/5</f>
-        <v>-1.6027652041369729</v>
-      </c>
-      <c r="D25">
-        <f>ABS(A25-A24)</f>
-        <v>7.3571319501734456E-2</v>
-      </c>
-      <c r="G25">
-        <f>G24-H25/$I$24</f>
-        <v>1.0235835101839648</v>
-      </c>
-      <c r="H25">
-        <f>(SIN((G24-8)^2))/3-(G24-2)/5</f>
-        <v>-0.11791755091982392</v>
-      </c>
-      <c r="J25">
-        <f>ABS(G25-G24)</f>
-        <v>2.3583510183964762E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" ref="A26:A34" si="8">A25-B26/C26</f>
-        <v>0.95537575576487088</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ref="B26:B34" si="9">(SIN((A25-8)^2))/3-(A25-2)/5</f>
-        <v>0.13869863317749132</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C34" si="10">(2/3)*COS((A25-8)^2)*(A25-8)-1/5</f>
-        <v>-4.7914558517592472</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D34" si="11">ABS(A26-A25)</f>
-        <v>2.8947075266605338E-2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G34" si="12">G25-H26/$I$24</f>
-        <v>1.0511738366985011</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H34" si="13">(SIN((G25-8)^2))/3-(G25-2)/5</f>
-        <v>-0.137951632572681</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ref="J26:J34" si="14">ABS(G26-G25)</f>
-        <v>2.7590326514536301E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="8"/>
-        <v>0.95794310813734285</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="9"/>
-        <v>1.0193604774775628E-2</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="10"/>
-        <v>-3.9704735836322889</v>
-      </c>
-      <c r="D27">
+      <c r="Z24">
+        <f>(1/((X2+4)*LN(2)))-((X2+6)^2)*COS(((X2+6)^3)/27)/18</f>
+        <v>1.5207239308578291</v>
+      </c>
+    </row>
+    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f>P24-Q25/$R$24</f>
+        <v>3.0341666084289294</v>
+      </c>
+      <c r="Q25">
+        <f>LOG(P24+4,2)-0.5*(SIN(((P24+6)/3)^3)+5)</f>
+        <v>-0.17083304214464734</v>
+      </c>
+      <c r="S25">
+        <f>ABS(P25-P24)</f>
+        <v>3.4166608428929379E-2</v>
+      </c>
+      <c r="T25" t="str">
+        <f>IF(S25&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" ref="P26:P37" si="11">P25-Q26/$R$24</f>
+        <v>3.0535334793663593</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q37" si="12">LOG(P25+4,2)-0.5*(SIN(((P25+6)/3)^3)+5)</f>
+        <v>-9.6834354687149737E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:S37" si="13">ABS(P26-P25)</f>
+        <v>1.9366870937429947E-2</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" ref="T26:T37" si="14">IF(S26&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P27">
         <f t="shared" si="11"/>
-        <v>2.5673523724719649E-3</v>
-      </c>
-      <c r="G27">
+        <v>3.06087571404667</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="12"/>
-        <v>1.0744019418114945</v>
-      </c>
-      <c r="H27">
+        <v>-3.6711173401553054E-2</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="13"/>
-        <v>-0.11614052556496693</v>
-      </c>
-      <c r="J27">
+        <v>7.3422346803106997E-3</v>
+      </c>
+      <c r="T27" t="str">
         <f t="shared" si="14"/>
-        <v>2.3228105112993447E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="8"/>
-        <v>0.95797772880870291</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="9"/>
-        <v>1.3382383157153899E-4</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="10"/>
-        <v>-3.8654314406437069</v>
-      </c>
-      <c r="D28">
+        <v>no</v>
+      </c>
+    </row>
+    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P28">
         <f t="shared" si="11"/>
-        <v>3.4620671360063859E-5</v>
-      </c>
-      <c r="G28">
+        <v>3.0630503723126066</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="12"/>
-        <v>1.0870217244521103</v>
-      </c>
-      <c r="H28">
+        <v>-1.0873291329682733E-2</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="13"/>
-        <v>-6.3098913203079199E-2</v>
-      </c>
-      <c r="J28">
+        <v>2.1746582659365465E-3</v>
+      </c>
+      <c r="T28" t="str">
+        <f>IF(S28&gt;0.001,"no","yes")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <f t="shared" si="11"/>
+        <v>3.0636350840451541</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="12"/>
+        <v>-2.9235586627369692E-3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="13"/>
+        <v>5.8471173254748265E-4</v>
+      </c>
+      <c r="T29" t="str">
         <f t="shared" si="14"/>
-        <v>1.2619782640615806E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="8"/>
-        <v>0.95797773529847785</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="9"/>
-        <v>2.5076377946353645E-8</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="10"/>
-        <v>-3.8639826627596037</v>
-      </c>
-      <c r="D29">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P30">
         <f t="shared" si="11"/>
-        <v>6.489774939666404E-9</v>
-      </c>
-      <c r="G29">
+        <v>3.0637878124564506</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="12"/>
-        <v>1.0916597400669366</v>
-      </c>
-      <c r="H29">
+        <v>-7.6364205648182804E-4</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="13"/>
-        <v>-2.3190078074131065E-2</v>
-      </c>
-      <c r="J29">
+        <v>1.5272841129654324E-4</v>
+      </c>
+      <c r="T30" t="str">
         <f t="shared" si="14"/>
-        <v>4.6380156148262408E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="8"/>
-        <v>0.95797773529847818</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="9"/>
-        <v>1.3877787807814457E-15</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="10"/>
-        <v>-3.8639823911010542</v>
-      </c>
-      <c r="D30">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P31">
         <f t="shared" si="11"/>
-        <v>3.3306690738754696E-16</v>
-      </c>
-      <c r="G30">
+        <v>3.0638273953744228</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="12"/>
-        <v>1.0930391030062558</v>
-      </c>
-      <c r="H30">
+        <v>-1.9791458986118116E-4</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="13"/>
-        <v>-6.896814696596365E-3</v>
-      </c>
-      <c r="J30">
+        <v>3.9582917972236231E-5</v>
+      </c>
+      <c r="T31" t="str">
         <f t="shared" si="14"/>
-        <v>1.3793629393192841E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="8"/>
-        <v>0.95797773529847852</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="9"/>
-        <v>1.27675647831893E-15</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="10"/>
-        <v>-3.8639823911010542</v>
-      </c>
-      <c r="D31">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="32" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P32">
         <f t="shared" si="11"/>
-        <v>3.3306690738754696E-16</v>
-      </c>
-      <c r="G31">
+        <v>3.0638376332449293</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="12"/>
-        <v>1.0934192485052729</v>
-      </c>
-      <c r="H31">
+        <v>-5.118935253278778E-5</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="13"/>
-        <v>-1.9007274950849917E-3</v>
-      </c>
-      <c r="J31">
+        <v>1.0237870506468738E-5</v>
+      </c>
+      <c r="T32" t="str">
         <f t="shared" si="14"/>
-        <v>3.8014549901710382E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="8"/>
-        <v>0.95797773529847785</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="9"/>
-        <v>-2.4980018054066022E-15</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="10"/>
-        <v>-3.8639823911010116</v>
-      </c>
-      <c r="D32">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P33">
         <f t="shared" si="11"/>
-        <v>6.6613381477509392E-16</v>
-      </c>
-      <c r="G32">
+        <v>3.0638402798049618</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="12"/>
-        <v>1.0935216958151055</v>
-      </c>
-      <c r="H32">
+        <v>-1.3232800161855351E-5</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="13"/>
-        <v>-5.1223654916313088E-4</v>
-      </c>
-      <c r="J32">
+        <v>2.6465600324598881E-6</v>
+      </c>
+      <c r="T33" t="str">
         <f t="shared" si="14"/>
-        <v>1.0244730983255401E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="8"/>
-        <v>0.95797773529847818</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="9"/>
-        <v>1.3877787807814457E-15</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="10"/>
-        <v>-3.8639823911010542</v>
-      </c>
-      <c r="D33">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P34">
         <f t="shared" si="11"/>
-        <v>3.3306690738754696E-16</v>
-      </c>
-      <c r="G33">
+        <v>3.0638409638653643</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="12"/>
-        <v>1.0935491357456359</v>
-      </c>
-      <c r="H33">
+        <v>-3.4203020122802741E-6</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="13"/>
-        <v>-1.3719965265199252E-4</v>
-      </c>
-      <c r="J33">
+        <v>6.8406040254487266E-7</v>
+      </c>
+      <c r="T34" t="str">
         <f t="shared" si="14"/>
-        <v>2.7439930530448464E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="8"/>
-        <v>0.95797773529847852</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="9"/>
-        <v>1.27675647831893E-15</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="10"/>
-        <v>-3.8639823911010542</v>
-      </c>
-      <c r="D34">
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P35">
         <f t="shared" si="11"/>
-        <v>3.3306690738754696E-16</v>
-      </c>
-      <c r="G34">
+        <v>3.0638411406692456</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="12"/>
-        <v>1.0935564732300991</v>
-      </c>
-      <c r="H34">
+        <v>-8.8401940656623879E-7</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="13"/>
-        <v>-3.6687422315856422E-5</v>
-      </c>
-      <c r="J34">
+        <v>1.7680388131324776E-7</v>
+      </c>
+      <c r="T35" t="str">
         <f t="shared" si="14"/>
-        <v>7.3374844631324265E-6</v>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <f t="shared" si="11"/>
+        <v>3.06384118636598</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="12"/>
+        <v>-2.2848367109418177E-7</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="13"/>
+        <v>4.5696734396472038E-8</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="14"/>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>3.0638411981767311</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="12"/>
+        <v>-5.9053754331017672E-8</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="13"/>
+        <v>1.1810751043839218E-8</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="14"/>
+        <v>yes</v>
       </c>
     </row>
   </sheetData>
